--- a/030_設計ドキュメント/020_サンプル/060_メール設計/メール設計書_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/060_メール設計/メール設計書_サンプル.xlsx
@@ -1542,6 +1542,87 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1653,85 +1734,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,8 +1746,20 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1755,13 +1770,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1814,57 +1865,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2229,19 +2229,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="2333625"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2419350" y="2486025"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2259,27 +2259,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2287,27 +2275,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2323,20 +2299,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1781175" y="2162175"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1943100" y="2333625"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2354,27 +2330,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2382,27 +2346,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2418,20 +2370,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876425" y="2247900"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2028825" y="2400300"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2449,27 +2401,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2477,27 +2417,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2515,17 +2443,17 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="2124075" y="2562225"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -2544,27 +2472,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2572,27 +2488,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2606,16 +2510,16 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
+      <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="1809750" y="9715500"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -2634,27 +2538,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2662,27 +2554,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3644,57 +3524,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="113" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="122" t="s">
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="104" t="s">
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="131" t="str">
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="158" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="97">
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="124">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="99"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="126"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3702,53 +3582,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="104" t="s">
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="110" t="str">
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="137" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="97" t="str">
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="124" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="99"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3756,45 +3636,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="99"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3831,1190 +3711,1034 @@
       <c r="A7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="100" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="100" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="103" t="s">
+      <c r="H7" s="129"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="100" t="s">
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="100" t="s">
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="101"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="128"/>
     </row>
     <row r="8" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148">
+      <c r="C8" s="111"/>
+      <c r="D8" s="112">
         <v>43336</v>
       </c>
-      <c r="E8" s="149"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="151" t="s">
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="152"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154" t="s">
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="157" t="s">
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="159"/>
-      <c r="AF8" s="154" t="s">
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="AG8" s="155"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="156"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="120"/>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="142"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="105"/>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="142"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="104"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="105"/>
     </row>
     <row r="11" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="144"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="144"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="142"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="105"/>
     </row>
     <row r="12" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="142"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="105"/>
     </row>
     <row r="13" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="142"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="105"/>
     </row>
     <row r="14" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="144"/>
-      <c r="AD14" s="144"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="105"/>
     </row>
     <row r="15" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="144"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="105"/>
     </row>
     <row r="16" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
-      <c r="Z16" s="144"/>
-      <c r="AA16" s="144"/>
-      <c r="AB16" s="144"/>
-      <c r="AC16" s="144"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="142"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="105"/>
     </row>
     <row r="17" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
-      <c r="Z17" s="144"/>
-      <c r="AA17" s="144"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="144"/>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="142"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="105"/>
     </row>
     <row r="18" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="144"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="144"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="144"/>
-      <c r="Z18" s="144"/>
-      <c r="AA18" s="144"/>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="142"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="105"/>
     </row>
     <row r="19" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
-      <c r="U19" s="144"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="144"/>
-      <c r="AB19" s="144"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="142"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="105"/>
     </row>
     <row r="20" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="142"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="105"/>
     </row>
     <row r="21" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="142"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="105"/>
     </row>
     <row r="22" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="144"/>
-      <c r="AB22" s="144"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="142"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="105"/>
     </row>
     <row r="23" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="142"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="103"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="105"/>
     </row>
     <row r="24" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="142"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="105"/>
     </row>
     <row r="25" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="144"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="142"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="103"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="105"/>
     </row>
     <row r="26" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="142"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="105"/>
     </row>
     <row r="27" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="142"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="107"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="105"/>
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="141"/>
-      <c r="AI28" s="142"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="107"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="107"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="103"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="105"/>
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="144"/>
-      <c r="U29" s="144"/>
-      <c r="V29" s="144"/>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="144"/>
-      <c r="AD29" s="144"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="141"/>
-      <c r="AH29" s="141"/>
-      <c r="AI29" s="142"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="107"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="105"/>
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="144"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="144"/>
-      <c r="Z30" s="144"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="141"/>
-      <c r="AI30" s="142"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="104"/>
+      <c r="AI30" s="105"/>
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="144"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="144"/>
-      <c r="U31" s="144"/>
-      <c r="V31" s="144"/>
-      <c r="W31" s="144"/>
-      <c r="X31" s="144"/>
-      <c r="Y31" s="144"/>
-      <c r="Z31" s="144"/>
-      <c r="AA31" s="144"/>
-      <c r="AB31" s="144"/>
-      <c r="AC31" s="144"/>
-      <c r="AD31" s="144"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="141"/>
-      <c r="AH31" s="141"/>
-      <c r="AI31" s="142"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="107"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="107"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="103"/>
+      <c r="AG31" s="104"/>
+      <c r="AH31" s="104"/>
+      <c r="AI31" s="105"/>
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="144"/>
-      <c r="T32" s="144"/>
-      <c r="U32" s="144"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="144"/>
-      <c r="X32" s="144"/>
-      <c r="Y32" s="144"/>
-      <c r="Z32" s="144"/>
-      <c r="AA32" s="144"/>
-      <c r="AB32" s="144"/>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="144"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141"/>
-      <c r="AI32" s="142"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="103"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="105"/>
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="142"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="103"/>
+      <c r="AG33" s="104"/>
+      <c r="AH33" s="104"/>
+      <c r="AI33" s="105"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -5038,6 +4762,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -5195,163 +5075,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107" t="str">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="113" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="164" t="str">
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メール設計書</v>
       </c>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="104" t="s">
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="131" t="str">
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="str">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="104" t="s">
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="131" t="str">
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="161" t="str">
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107" t="str">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="131" t="str">
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6814,6 +6694,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6823,14 +6711,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -6858,161 +6738,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107" t="str">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="171" t="s">
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="122" t="str">
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>メール設計書</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="104" t="s">
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="131" t="str">
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="162">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="8"/>
     </row>
     <row r="2" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="str">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="104" t="s">
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="131" t="str">
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="161" t="str">
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
     <row r="3" spans="1:37" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107" t="str">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="131" t="str">
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
     </row>
@@ -7287,1418 +7167,1418 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B11" s="39"/>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="140" t="s">
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="141"/>
-      <c r="W11" s="141"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="141"/>
-      <c r="Z11" s="141"/>
-      <c r="AA11" s="141"/>
-      <c r="AB11" s="141"/>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="141"/>
-      <c r="AE11" s="141"/>
-      <c r="AF11" s="141"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="142"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="105"/>
     </row>
     <row r="12" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="39"/>
-      <c r="C12" s="199" t="s">
+      <c r="C12" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="165" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="166"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="140" t="s">
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="141"/>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="141"/>
-      <c r="AF12" s="141"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="142"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="105"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B13" s="39"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="165" t="s">
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="166"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="140" t="s">
+      <c r="F13" s="171"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="142"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="105"/>
     </row>
     <row r="14" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="39"/>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="200"/>
-      <c r="E14" s="165" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="166"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="140" t="s">
+      <c r="F14" s="171"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="141"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="142"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="105"/>
     </row>
     <row r="15" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="39"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="165" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="166"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="140" t="s">
+      <c r="F15" s="171"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="141"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="141"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="141"/>
-      <c r="X15" s="141"/>
-      <c r="Y15" s="141"/>
-      <c r="Z15" s="141"/>
-      <c r="AA15" s="141"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="141"/>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="141"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="142"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="105"/>
     </row>
     <row r="16" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="39"/>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="200"/>
-      <c r="E16" s="165" t="s">
+      <c r="D16" s="174"/>
+      <c r="E16" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="166"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="140" t="s">
+      <c r="F16" s="171"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="141"/>
-      <c r="U16" s="141"/>
-      <c r="V16" s="141"/>
-      <c r="W16" s="141"/>
-      <c r="X16" s="141"/>
-      <c r="Y16" s="141"/>
-      <c r="Z16" s="141"/>
-      <c r="AA16" s="141"/>
-      <c r="AB16" s="141"/>
-      <c r="AC16" s="141"/>
-      <c r="AD16" s="141"/>
-      <c r="AE16" s="141"/>
-      <c r="AF16" s="141"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="142"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="105"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B17" s="39"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="165" t="s">
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="166"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="140" t="s">
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="141"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="142"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="105"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B18" s="39"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="165" t="s">
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="166"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="140" t="s">
+      <c r="F18" s="171"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="141"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="141"/>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="141"/>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="141"/>
-      <c r="AF18" s="141"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="142"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="105"/>
     </row>
     <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="39"/>
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="140" t="s">
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="141"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="142"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="105"/>
     </row>
     <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="39"/>
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="140" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="141"/>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="141"/>
-      <c r="AF20" s="141"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="142"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="105"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="39"/>
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="166"/>
-      <c r="AF21" s="166"/>
-      <c r="AG21" s="166"/>
-      <c r="AH21" s="167"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="171"/>
+      <c r="AA21" s="171"/>
+      <c r="AB21" s="171"/>
+      <c r="AC21" s="171"/>
+      <c r="AD21" s="171"/>
+      <c r="AE21" s="171"/>
+      <c r="AF21" s="171"/>
+      <c r="AG21" s="171"/>
+      <c r="AH21" s="172"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B22" s="39"/>
-      <c r="C22" s="190" t="s">
+      <c r="C22" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="191"/>
-      <c r="S22" s="191"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="191"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="191"/>
-      <c r="X22" s="191"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="191"/>
-      <c r="AA22" s="191"/>
-      <c r="AB22" s="191"/>
-      <c r="AC22" s="191"/>
-      <c r="AD22" s="191"/>
-      <c r="AE22" s="191"/>
-      <c r="AF22" s="191"/>
-      <c r="AG22" s="191"/>
-      <c r="AH22" s="192"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="180"/>
+      <c r="U22" s="180"/>
+      <c r="V22" s="180"/>
+      <c r="W22" s="180"/>
+      <c r="X22" s="180"/>
+      <c r="Y22" s="180"/>
+      <c r="Z22" s="180"/>
+      <c r="AA22" s="180"/>
+      <c r="AB22" s="180"/>
+      <c r="AC22" s="180"/>
+      <c r="AD22" s="180"/>
+      <c r="AE22" s="180"/>
+      <c r="AF22" s="180"/>
+      <c r="AG22" s="180"/>
+      <c r="AH22" s="181"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B23" s="39"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="194"/>
-      <c r="O23" s="194"/>
-      <c r="P23" s="194"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="194"/>
-      <c r="S23" s="194"/>
-      <c r="T23" s="194"/>
-      <c r="U23" s="194"/>
-      <c r="V23" s="194"/>
-      <c r="W23" s="194"/>
-      <c r="X23" s="194"/>
-      <c r="Y23" s="194"/>
-      <c r="Z23" s="194"/>
-      <c r="AA23" s="194"/>
-      <c r="AB23" s="194"/>
-      <c r="AC23" s="194"/>
-      <c r="AD23" s="194"/>
-      <c r="AE23" s="194"/>
-      <c r="AF23" s="194"/>
-      <c r="AG23" s="194"/>
-      <c r="AH23" s="195"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="183"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="184"/>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B24" s="39"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
-      <c r="N24" s="194"/>
-      <c r="O24" s="194"/>
-      <c r="P24" s="194"/>
-      <c r="Q24" s="194"/>
-      <c r="R24" s="194"/>
-      <c r="S24" s="194"/>
-      <c r="T24" s="194"/>
-      <c r="U24" s="194"/>
-      <c r="V24" s="194"/>
-      <c r="W24" s="194"/>
-      <c r="X24" s="194"/>
-      <c r="Y24" s="194"/>
-      <c r="Z24" s="194"/>
-      <c r="AA24" s="194"/>
-      <c r="AB24" s="194"/>
-      <c r="AC24" s="194"/>
-      <c r="AD24" s="194"/>
-      <c r="AE24" s="194"/>
-      <c r="AF24" s="194"/>
-      <c r="AG24" s="194"/>
-      <c r="AH24" s="195"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="183"/>
+      <c r="AF24" s="183"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="184"/>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="194"/>
-      <c r="M25" s="194"/>
-      <c r="N25" s="194"/>
-      <c r="O25" s="194"/>
-      <c r="P25" s="194"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="194"/>
-      <c r="S25" s="194"/>
-      <c r="T25" s="194"/>
-      <c r="U25" s="194"/>
-      <c r="V25" s="194"/>
-      <c r="W25" s="194"/>
-      <c r="X25" s="194"/>
-      <c r="Y25" s="194"/>
-      <c r="Z25" s="194"/>
-      <c r="AA25" s="194"/>
-      <c r="AB25" s="194"/>
-      <c r="AC25" s="194"/>
-      <c r="AD25" s="194"/>
-      <c r="AE25" s="194"/>
-      <c r="AF25" s="194"/>
-      <c r="AG25" s="194"/>
-      <c r="AH25" s="195"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="183"/>
+      <c r="AF25" s="183"/>
+      <c r="AG25" s="183"/>
+      <c r="AH25" s="184"/>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B26" s="39"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="194"/>
-      <c r="M26" s="194"/>
-      <c r="N26" s="194"/>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="194"/>
-      <c r="S26" s="194"/>
-      <c r="T26" s="194"/>
-      <c r="U26" s="194"/>
-      <c r="V26" s="194"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="194"/>
-      <c r="Y26" s="194"/>
-      <c r="Z26" s="194"/>
-      <c r="AA26" s="194"/>
-      <c r="AB26" s="194"/>
-      <c r="AC26" s="194"/>
-      <c r="AD26" s="194"/>
-      <c r="AE26" s="194"/>
-      <c r="AF26" s="194"/>
-      <c r="AG26" s="194"/>
-      <c r="AH26" s="195"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="183"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
+      <c r="Y26" s="183"/>
+      <c r="Z26" s="183"/>
+      <c r="AA26" s="183"/>
+      <c r="AB26" s="183"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="183"/>
+      <c r="AE26" s="183"/>
+      <c r="AF26" s="183"/>
+      <c r="AG26" s="183"/>
+      <c r="AH26" s="184"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="194"/>
-      <c r="M27" s="194"/>
-      <c r="N27" s="194"/>
-      <c r="O27" s="194"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="194"/>
-      <c r="S27" s="194"/>
-      <c r="T27" s="194"/>
-      <c r="U27" s="194"/>
-      <c r="V27" s="194"/>
-      <c r="W27" s="194"/>
-      <c r="X27" s="194"/>
-      <c r="Y27" s="194"/>
-      <c r="Z27" s="194"/>
-      <c r="AA27" s="194"/>
-      <c r="AB27" s="194"/>
-      <c r="AC27" s="194"/>
-      <c r="AD27" s="194"/>
-      <c r="AE27" s="194"/>
-      <c r="AF27" s="194"/>
-      <c r="AG27" s="194"/>
-      <c r="AH27" s="195"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="183"/>
+      <c r="AE27" s="183"/>
+      <c r="AF27" s="183"/>
+      <c r="AG27" s="183"/>
+      <c r="AH27" s="184"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B28" s="39"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="194"/>
-      <c r="N28" s="194"/>
-      <c r="O28" s="194"/>
-      <c r="P28" s="194"/>
-      <c r="Q28" s="194"/>
-      <c r="R28" s="194"/>
-      <c r="S28" s="194"/>
-      <c r="T28" s="194"/>
-      <c r="U28" s="194"/>
-      <c r="V28" s="194"/>
-      <c r="W28" s="194"/>
-      <c r="X28" s="194"/>
-      <c r="Y28" s="194"/>
-      <c r="Z28" s="194"/>
-      <c r="AA28" s="194"/>
-      <c r="AB28" s="194"/>
-      <c r="AC28" s="194"/>
-      <c r="AD28" s="194"/>
-      <c r="AE28" s="194"/>
-      <c r="AF28" s="194"/>
-      <c r="AG28" s="194"/>
-      <c r="AH28" s="195"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="183"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="184"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B29" s="39"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="194"/>
-      <c r="O29" s="194"/>
-      <c r="P29" s="194"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="194"/>
-      <c r="S29" s="194"/>
-      <c r="T29" s="194"/>
-      <c r="U29" s="194"/>
-      <c r="V29" s="194"/>
-      <c r="W29" s="194"/>
-      <c r="X29" s="194"/>
-      <c r="Y29" s="194"/>
-      <c r="Z29" s="194"/>
-      <c r="AA29" s="194"/>
-      <c r="AB29" s="194"/>
-      <c r="AC29" s="194"/>
-      <c r="AD29" s="194"/>
-      <c r="AE29" s="194"/>
-      <c r="AF29" s="194"/>
-      <c r="AG29" s="194"/>
-      <c r="AH29" s="195"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="183"/>
+      <c r="AB29" s="183"/>
+      <c r="AC29" s="183"/>
+      <c r="AD29" s="183"/>
+      <c r="AE29" s="183"/>
+      <c r="AF29" s="183"/>
+      <c r="AG29" s="183"/>
+      <c r="AH29" s="184"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B30" s="39"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="194"/>
-      <c r="M30" s="194"/>
-      <c r="N30" s="194"/>
-      <c r="O30" s="194"/>
-      <c r="P30" s="194"/>
-      <c r="Q30" s="194"/>
-      <c r="R30" s="194"/>
-      <c r="S30" s="194"/>
-      <c r="T30" s="194"/>
-      <c r="U30" s="194"/>
-      <c r="V30" s="194"/>
-      <c r="W30" s="194"/>
-      <c r="X30" s="194"/>
-      <c r="Y30" s="194"/>
-      <c r="Z30" s="194"/>
-      <c r="AA30" s="194"/>
-      <c r="AB30" s="194"/>
-      <c r="AC30" s="194"/>
-      <c r="AD30" s="194"/>
-      <c r="AE30" s="194"/>
-      <c r="AF30" s="194"/>
-      <c r="AG30" s="194"/>
-      <c r="AH30" s="195"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="183"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="183"/>
+      <c r="AF30" s="183"/>
+      <c r="AG30" s="183"/>
+      <c r="AH30" s="184"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B31" s="39"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
-      <c r="M31" s="194"/>
-      <c r="N31" s="194"/>
-      <c r="O31" s="194"/>
-      <c r="P31" s="194"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="194"/>
-      <c r="T31" s="194"/>
-      <c r="U31" s="194"/>
-      <c r="V31" s="194"/>
-      <c r="W31" s="194"/>
-      <c r="X31" s="194"/>
-      <c r="Y31" s="194"/>
-      <c r="Z31" s="194"/>
-      <c r="AA31" s="194"/>
-      <c r="AB31" s="194"/>
-      <c r="AC31" s="194"/>
-      <c r="AD31" s="194"/>
-      <c r="AE31" s="194"/>
-      <c r="AF31" s="194"/>
-      <c r="AG31" s="194"/>
-      <c r="AH31" s="195"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="183"/>
+      <c r="AA31" s="183"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="183"/>
+      <c r="AD31" s="183"/>
+      <c r="AE31" s="183"/>
+      <c r="AF31" s="183"/>
+      <c r="AG31" s="183"/>
+      <c r="AH31" s="184"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B32" s="39"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="194"/>
-      <c r="O32" s="194"/>
-      <c r="P32" s="194"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="194"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="194"/>
-      <c r="U32" s="194"/>
-      <c r="V32" s="194"/>
-      <c r="W32" s="194"/>
-      <c r="X32" s="194"/>
-      <c r="Y32" s="194"/>
-      <c r="Z32" s="194"/>
-      <c r="AA32" s="194"/>
-      <c r="AB32" s="194"/>
-      <c r="AC32" s="194"/>
-      <c r="AD32" s="194"/>
-      <c r="AE32" s="194"/>
-      <c r="AF32" s="194"/>
-      <c r="AG32" s="194"/>
-      <c r="AH32" s="195"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="183"/>
+      <c r="V32" s="183"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="183"/>
+      <c r="Z32" s="183"/>
+      <c r="AA32" s="183"/>
+      <c r="AB32" s="183"/>
+      <c r="AC32" s="183"/>
+      <c r="AD32" s="183"/>
+      <c r="AE32" s="183"/>
+      <c r="AF32" s="183"/>
+      <c r="AG32" s="183"/>
+      <c r="AH32" s="184"/>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B33" s="39"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="194"/>
-      <c r="O33" s="194"/>
-      <c r="P33" s="194"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="194"/>
-      <c r="T33" s="194"/>
-      <c r="U33" s="194"/>
-      <c r="V33" s="194"/>
-      <c r="W33" s="194"/>
-      <c r="X33" s="194"/>
-      <c r="Y33" s="194"/>
-      <c r="Z33" s="194"/>
-      <c r="AA33" s="194"/>
-      <c r="AB33" s="194"/>
-      <c r="AC33" s="194"/>
-      <c r="AD33" s="194"/>
-      <c r="AE33" s="194"/>
-      <c r="AF33" s="194"/>
-      <c r="AG33" s="194"/>
-      <c r="AH33" s="195"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="183"/>
+      <c r="AA33" s="183"/>
+      <c r="AB33" s="183"/>
+      <c r="AC33" s="183"/>
+      <c r="AD33" s="183"/>
+      <c r="AE33" s="183"/>
+      <c r="AF33" s="183"/>
+      <c r="AG33" s="183"/>
+      <c r="AH33" s="184"/>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B34" s="39"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="194"/>
-      <c r="M34" s="194"/>
-      <c r="N34" s="194"/>
-      <c r="O34" s="194"/>
-      <c r="P34" s="194"/>
-      <c r="Q34" s="194"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="194"/>
-      <c r="T34" s="194"/>
-      <c r="U34" s="194"/>
-      <c r="V34" s="194"/>
-      <c r="W34" s="194"/>
-      <c r="X34" s="194"/>
-      <c r="Y34" s="194"/>
-      <c r="Z34" s="194"/>
-      <c r="AA34" s="194"/>
-      <c r="AB34" s="194"/>
-      <c r="AC34" s="194"/>
-      <c r="AD34" s="194"/>
-      <c r="AE34" s="194"/>
-      <c r="AF34" s="194"/>
-      <c r="AG34" s="194"/>
-      <c r="AH34" s="195"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="183"/>
+      <c r="Q34" s="183"/>
+      <c r="R34" s="183"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="183"/>
+      <c r="U34" s="183"/>
+      <c r="V34" s="183"/>
+      <c r="W34" s="183"/>
+      <c r="X34" s="183"/>
+      <c r="Y34" s="183"/>
+      <c r="Z34" s="183"/>
+      <c r="AA34" s="183"/>
+      <c r="AB34" s="183"/>
+      <c r="AC34" s="183"/>
+      <c r="AD34" s="183"/>
+      <c r="AE34" s="183"/>
+      <c r="AF34" s="183"/>
+      <c r="AG34" s="183"/>
+      <c r="AH34" s="184"/>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B35" s="39"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
-      <c r="M35" s="194"/>
-      <c r="N35" s="194"/>
-      <c r="O35" s="194"/>
-      <c r="P35" s="194"/>
-      <c r="Q35" s="194"/>
-      <c r="R35" s="194"/>
-      <c r="S35" s="194"/>
-      <c r="T35" s="194"/>
-      <c r="U35" s="194"/>
-      <c r="V35" s="194"/>
-      <c r="W35" s="194"/>
-      <c r="X35" s="194"/>
-      <c r="Y35" s="194"/>
-      <c r="Z35" s="194"/>
-      <c r="AA35" s="194"/>
-      <c r="AB35" s="194"/>
-      <c r="AC35" s="194"/>
-      <c r="AD35" s="194"/>
-      <c r="AE35" s="194"/>
-      <c r="AF35" s="194"/>
-      <c r="AG35" s="194"/>
-      <c r="AH35" s="195"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="183"/>
+      <c r="Q35" s="183"/>
+      <c r="R35" s="183"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="183"/>
+      <c r="U35" s="183"/>
+      <c r="V35" s="183"/>
+      <c r="W35" s="183"/>
+      <c r="X35" s="183"/>
+      <c r="Y35" s="183"/>
+      <c r="Z35" s="183"/>
+      <c r="AA35" s="183"/>
+      <c r="AB35" s="183"/>
+      <c r="AC35" s="183"/>
+      <c r="AD35" s="183"/>
+      <c r="AE35" s="183"/>
+      <c r="AF35" s="183"/>
+      <c r="AG35" s="183"/>
+      <c r="AH35" s="184"/>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B36" s="39"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="194"/>
-      <c r="M36" s="194"/>
-      <c r="N36" s="194"/>
-      <c r="O36" s="194"/>
-      <c r="P36" s="194"/>
-      <c r="Q36" s="194"/>
-      <c r="R36" s="194"/>
-      <c r="S36" s="194"/>
-      <c r="T36" s="194"/>
-      <c r="U36" s="194"/>
-      <c r="V36" s="194"/>
-      <c r="W36" s="194"/>
-      <c r="X36" s="194"/>
-      <c r="Y36" s="194"/>
-      <c r="Z36" s="194"/>
-      <c r="AA36" s="194"/>
-      <c r="AB36" s="194"/>
-      <c r="AC36" s="194"/>
-      <c r="AD36" s="194"/>
-      <c r="AE36" s="194"/>
-      <c r="AF36" s="194"/>
-      <c r="AG36" s="194"/>
-      <c r="AH36" s="195"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="183"/>
+      <c r="P36" s="183"/>
+      <c r="Q36" s="183"/>
+      <c r="R36" s="183"/>
+      <c r="S36" s="183"/>
+      <c r="T36" s="183"/>
+      <c r="U36" s="183"/>
+      <c r="V36" s="183"/>
+      <c r="W36" s="183"/>
+      <c r="X36" s="183"/>
+      <c r="Y36" s="183"/>
+      <c r="Z36" s="183"/>
+      <c r="AA36" s="183"/>
+      <c r="AB36" s="183"/>
+      <c r="AC36" s="183"/>
+      <c r="AD36" s="183"/>
+      <c r="AE36" s="183"/>
+      <c r="AF36" s="183"/>
+      <c r="AG36" s="183"/>
+      <c r="AH36" s="184"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B37" s="39"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="194"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
-      <c r="P37" s="194"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="194"/>
-      <c r="T37" s="194"/>
-      <c r="U37" s="194"/>
-      <c r="V37" s="194"/>
-      <c r="W37" s="194"/>
-      <c r="X37" s="194"/>
-      <c r="Y37" s="194"/>
-      <c r="Z37" s="194"/>
-      <c r="AA37" s="194"/>
-      <c r="AB37" s="194"/>
-      <c r="AC37" s="194"/>
-      <c r="AD37" s="194"/>
-      <c r="AE37" s="194"/>
-      <c r="AF37" s="194"/>
-      <c r="AG37" s="194"/>
-      <c r="AH37" s="195"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="183"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="183"/>
+      <c r="R37" s="183"/>
+      <c r="S37" s="183"/>
+      <c r="T37" s="183"/>
+      <c r="U37" s="183"/>
+      <c r="V37" s="183"/>
+      <c r="W37" s="183"/>
+      <c r="X37" s="183"/>
+      <c r="Y37" s="183"/>
+      <c r="Z37" s="183"/>
+      <c r="AA37" s="183"/>
+      <c r="AB37" s="183"/>
+      <c r="AC37" s="183"/>
+      <c r="AD37" s="183"/>
+      <c r="AE37" s="183"/>
+      <c r="AF37" s="183"/>
+      <c r="AG37" s="183"/>
+      <c r="AH37" s="184"/>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B38" s="39"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194"/>
-      <c r="L38" s="194"/>
-      <c r="M38" s="194"/>
-      <c r="N38" s="194"/>
-      <c r="O38" s="194"/>
-      <c r="P38" s="194"/>
-      <c r="Q38" s="194"/>
-      <c r="R38" s="194"/>
-      <c r="S38" s="194"/>
-      <c r="T38" s="194"/>
-      <c r="U38" s="194"/>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194"/>
-      <c r="X38" s="194"/>
-      <c r="Y38" s="194"/>
-      <c r="Z38" s="194"/>
-      <c r="AA38" s="194"/>
-      <c r="AB38" s="194"/>
-      <c r="AC38" s="194"/>
-      <c r="AD38" s="194"/>
-      <c r="AE38" s="194"/>
-      <c r="AF38" s="194"/>
-      <c r="AG38" s="194"/>
-      <c r="AH38" s="195"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="183"/>
+      <c r="N38" s="183"/>
+      <c r="O38" s="183"/>
+      <c r="P38" s="183"/>
+      <c r="Q38" s="183"/>
+      <c r="R38" s="183"/>
+      <c r="S38" s="183"/>
+      <c r="T38" s="183"/>
+      <c r="U38" s="183"/>
+      <c r="V38" s="183"/>
+      <c r="W38" s="183"/>
+      <c r="X38" s="183"/>
+      <c r="Y38" s="183"/>
+      <c r="Z38" s="183"/>
+      <c r="AA38" s="183"/>
+      <c r="AB38" s="183"/>
+      <c r="AC38" s="183"/>
+      <c r="AD38" s="183"/>
+      <c r="AE38" s="183"/>
+      <c r="AF38" s="183"/>
+      <c r="AG38" s="183"/>
+      <c r="AH38" s="184"/>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="194"/>
-      <c r="N39" s="194"/>
-      <c r="O39" s="194"/>
-      <c r="P39" s="194"/>
-      <c r="Q39" s="194"/>
-      <c r="R39" s="194"/>
-      <c r="S39" s="194"/>
-      <c r="T39" s="194"/>
-      <c r="U39" s="194"/>
-      <c r="V39" s="194"/>
-      <c r="W39" s="194"/>
-      <c r="X39" s="194"/>
-      <c r="Y39" s="194"/>
-      <c r="Z39" s="194"/>
-      <c r="AA39" s="194"/>
-      <c r="AB39" s="194"/>
-      <c r="AC39" s="194"/>
-      <c r="AD39" s="194"/>
-      <c r="AE39" s="194"/>
-      <c r="AF39" s="194"/>
-      <c r="AG39" s="194"/>
-      <c r="AH39" s="195"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="183"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="183"/>
+      <c r="U39" s="183"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="183"/>
+      <c r="AB39" s="183"/>
+      <c r="AC39" s="183"/>
+      <c r="AD39" s="183"/>
+      <c r="AE39" s="183"/>
+      <c r="AF39" s="183"/>
+      <c r="AG39" s="183"/>
+      <c r="AH39" s="184"/>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B40" s="39"/>
-      <c r="C40" s="193"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="194"/>
-      <c r="L40" s="194"/>
-      <c r="M40" s="194"/>
-      <c r="N40" s="194"/>
-      <c r="O40" s="194"/>
-      <c r="P40" s="194"/>
-      <c r="Q40" s="194"/>
-      <c r="R40" s="194"/>
-      <c r="S40" s="194"/>
-      <c r="T40" s="194"/>
-      <c r="U40" s="194"/>
-      <c r="V40" s="194"/>
-      <c r="W40" s="194"/>
-      <c r="X40" s="194"/>
-      <c r="Y40" s="194"/>
-      <c r="Z40" s="194"/>
-      <c r="AA40" s="194"/>
-      <c r="AB40" s="194"/>
-      <c r="AC40" s="194"/>
-      <c r="AD40" s="194"/>
-      <c r="AE40" s="194"/>
-      <c r="AF40" s="194"/>
-      <c r="AG40" s="194"/>
-      <c r="AH40" s="195"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
+      <c r="N40" s="183"/>
+      <c r="O40" s="183"/>
+      <c r="P40" s="183"/>
+      <c r="Q40" s="183"/>
+      <c r="R40" s="183"/>
+      <c r="S40" s="183"/>
+      <c r="T40" s="183"/>
+      <c r="U40" s="183"/>
+      <c r="V40" s="183"/>
+      <c r="W40" s="183"/>
+      <c r="X40" s="183"/>
+      <c r="Y40" s="183"/>
+      <c r="Z40" s="183"/>
+      <c r="AA40" s="183"/>
+      <c r="AB40" s="183"/>
+      <c r="AC40" s="183"/>
+      <c r="AD40" s="183"/>
+      <c r="AE40" s="183"/>
+      <c r="AF40" s="183"/>
+      <c r="AG40" s="183"/>
+      <c r="AH40" s="184"/>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B41" s="39"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="194"/>
-      <c r="M41" s="194"/>
-      <c r="N41" s="194"/>
-      <c r="O41" s="194"/>
-      <c r="P41" s="194"/>
-      <c r="Q41" s="194"/>
-      <c r="R41" s="194"/>
-      <c r="S41" s="194"/>
-      <c r="T41" s="194"/>
-      <c r="U41" s="194"/>
-      <c r="V41" s="194"/>
-      <c r="W41" s="194"/>
-      <c r="X41" s="194"/>
-      <c r="Y41" s="194"/>
-      <c r="Z41" s="194"/>
-      <c r="AA41" s="194"/>
-      <c r="AB41" s="194"/>
-      <c r="AC41" s="194"/>
-      <c r="AD41" s="194"/>
-      <c r="AE41" s="194"/>
-      <c r="AF41" s="194"/>
-      <c r="AG41" s="194"/>
-      <c r="AH41" s="195"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="183"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
+      <c r="AB41" s="183"/>
+      <c r="AC41" s="183"/>
+      <c r="AD41" s="183"/>
+      <c r="AE41" s="183"/>
+      <c r="AF41" s="183"/>
+      <c r="AG41" s="183"/>
+      <c r="AH41" s="184"/>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B42" s="39"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="194"/>
-      <c r="L42" s="194"/>
-      <c r="M42" s="194"/>
-      <c r="N42" s="194"/>
-      <c r="O42" s="194"/>
-      <c r="P42" s="194"/>
-      <c r="Q42" s="194"/>
-      <c r="R42" s="194"/>
-      <c r="S42" s="194"/>
-      <c r="T42" s="194"/>
-      <c r="U42" s="194"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194"/>
-      <c r="X42" s="194"/>
-      <c r="Y42" s="194"/>
-      <c r="Z42" s="194"/>
-      <c r="AA42" s="194"/>
-      <c r="AB42" s="194"/>
-      <c r="AC42" s="194"/>
-      <c r="AD42" s="194"/>
-      <c r="AE42" s="194"/>
-      <c r="AF42" s="194"/>
-      <c r="AG42" s="194"/>
-      <c r="AH42" s="195"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
+      <c r="N42" s="183"/>
+      <c r="O42" s="183"/>
+      <c r="P42" s="183"/>
+      <c r="Q42" s="183"/>
+      <c r="R42" s="183"/>
+      <c r="S42" s="183"/>
+      <c r="T42" s="183"/>
+      <c r="U42" s="183"/>
+      <c r="V42" s="183"/>
+      <c r="W42" s="183"/>
+      <c r="X42" s="183"/>
+      <c r="Y42" s="183"/>
+      <c r="Z42" s="183"/>
+      <c r="AA42" s="183"/>
+      <c r="AB42" s="183"/>
+      <c r="AC42" s="183"/>
+      <c r="AD42" s="183"/>
+      <c r="AE42" s="183"/>
+      <c r="AF42" s="183"/>
+      <c r="AG42" s="183"/>
+      <c r="AH42" s="184"/>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B43" s="39"/>
-      <c r="C43" s="193"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="194"/>
-      <c r="N43" s="194"/>
-      <c r="O43" s="194"/>
-      <c r="P43" s="194"/>
-      <c r="Q43" s="194"/>
-      <c r="R43" s="194"/>
-      <c r="S43" s="194"/>
-      <c r="T43" s="194"/>
-      <c r="U43" s="194"/>
-      <c r="V43" s="194"/>
-      <c r="W43" s="194"/>
-      <c r="X43" s="194"/>
-      <c r="Y43" s="194"/>
-      <c r="Z43" s="194"/>
-      <c r="AA43" s="194"/>
-      <c r="AB43" s="194"/>
-      <c r="AC43" s="194"/>
-      <c r="AD43" s="194"/>
-      <c r="AE43" s="194"/>
-      <c r="AF43" s="194"/>
-      <c r="AG43" s="194"/>
-      <c r="AH43" s="195"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="183"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="183"/>
+      <c r="U43" s="183"/>
+      <c r="V43" s="183"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="183"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="183"/>
+      <c r="AB43" s="183"/>
+      <c r="AC43" s="183"/>
+      <c r="AD43" s="183"/>
+      <c r="AE43" s="183"/>
+      <c r="AF43" s="183"/>
+      <c r="AG43" s="183"/>
+      <c r="AH43" s="184"/>
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B44" s="39"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="194"/>
-      <c r="N44" s="194"/>
-      <c r="O44" s="194"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="194"/>
-      <c r="R44" s="194"/>
-      <c r="S44" s="194"/>
-      <c r="T44" s="194"/>
-      <c r="U44" s="194"/>
-      <c r="V44" s="194"/>
-      <c r="W44" s="194"/>
-      <c r="X44" s="194"/>
-      <c r="Y44" s="194"/>
-      <c r="Z44" s="194"/>
-      <c r="AA44" s="194"/>
-      <c r="AB44" s="194"/>
-      <c r="AC44" s="194"/>
-      <c r="AD44" s="194"/>
-      <c r="AE44" s="194"/>
-      <c r="AF44" s="194"/>
-      <c r="AG44" s="194"/>
-      <c r="AH44" s="195"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="183"/>
+      <c r="N44" s="183"/>
+      <c r="O44" s="183"/>
+      <c r="P44" s="183"/>
+      <c r="Q44" s="183"/>
+      <c r="R44" s="183"/>
+      <c r="S44" s="183"/>
+      <c r="T44" s="183"/>
+      <c r="U44" s="183"/>
+      <c r="V44" s="183"/>
+      <c r="W44" s="183"/>
+      <c r="X44" s="183"/>
+      <c r="Y44" s="183"/>
+      <c r="Z44" s="183"/>
+      <c r="AA44" s="183"/>
+      <c r="AB44" s="183"/>
+      <c r="AC44" s="183"/>
+      <c r="AD44" s="183"/>
+      <c r="AE44" s="183"/>
+      <c r="AF44" s="183"/>
+      <c r="AG44" s="183"/>
+      <c r="AH44" s="184"/>
     </row>
     <row r="45" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B45" s="39"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="194"/>
-      <c r="L45" s="194"/>
-      <c r="M45" s="194"/>
-      <c r="N45" s="194"/>
-      <c r="O45" s="194"/>
-      <c r="P45" s="194"/>
-      <c r="Q45" s="194"/>
-      <c r="R45" s="194"/>
-      <c r="S45" s="194"/>
-      <c r="T45" s="194"/>
-      <c r="U45" s="194"/>
-      <c r="V45" s="194"/>
-      <c r="W45" s="194"/>
-      <c r="X45" s="194"/>
-      <c r="Y45" s="194"/>
-      <c r="Z45" s="194"/>
-      <c r="AA45" s="194"/>
-      <c r="AB45" s="194"/>
-      <c r="AC45" s="194"/>
-      <c r="AD45" s="194"/>
-      <c r="AE45" s="194"/>
-      <c r="AF45" s="194"/>
-      <c r="AG45" s="194"/>
-      <c r="AH45" s="195"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="183"/>
+      <c r="H45" s="183"/>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="183"/>
+      <c r="N45" s="183"/>
+      <c r="O45" s="183"/>
+      <c r="P45" s="183"/>
+      <c r="Q45" s="183"/>
+      <c r="R45" s="183"/>
+      <c r="S45" s="183"/>
+      <c r="T45" s="183"/>
+      <c r="U45" s="183"/>
+      <c r="V45" s="183"/>
+      <c r="W45" s="183"/>
+      <c r="X45" s="183"/>
+      <c r="Y45" s="183"/>
+      <c r="Z45" s="183"/>
+      <c r="AA45" s="183"/>
+      <c r="AB45" s="183"/>
+      <c r="AC45" s="183"/>
+      <c r="AD45" s="183"/>
+      <c r="AE45" s="183"/>
+      <c r="AF45" s="183"/>
+      <c r="AG45" s="183"/>
+      <c r="AH45" s="184"/>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B46" s="39"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="194"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="194"/>
-      <c r="N46" s="194"/>
-      <c r="O46" s="194"/>
-      <c r="P46" s="194"/>
-      <c r="Q46" s="194"/>
-      <c r="R46" s="194"/>
-      <c r="S46" s="194"/>
-      <c r="T46" s="194"/>
-      <c r="U46" s="194"/>
-      <c r="V46" s="194"/>
-      <c r="W46" s="194"/>
-      <c r="X46" s="194"/>
-      <c r="Y46" s="194"/>
-      <c r="Z46" s="194"/>
-      <c r="AA46" s="194"/>
-      <c r="AB46" s="194"/>
-      <c r="AC46" s="194"/>
-      <c r="AD46" s="194"/>
-      <c r="AE46" s="194"/>
-      <c r="AF46" s="194"/>
-      <c r="AG46" s="194"/>
-      <c r="AH46" s="195"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="183"/>
+      <c r="N46" s="183"/>
+      <c r="O46" s="183"/>
+      <c r="P46" s="183"/>
+      <c r="Q46" s="183"/>
+      <c r="R46" s="183"/>
+      <c r="S46" s="183"/>
+      <c r="T46" s="183"/>
+      <c r="U46" s="183"/>
+      <c r="V46" s="183"/>
+      <c r="W46" s="183"/>
+      <c r="X46" s="183"/>
+      <c r="Y46" s="183"/>
+      <c r="Z46" s="183"/>
+      <c r="AA46" s="183"/>
+      <c r="AB46" s="183"/>
+      <c r="AC46" s="183"/>
+      <c r="AD46" s="183"/>
+      <c r="AE46" s="183"/>
+      <c r="AF46" s="183"/>
+      <c r="AG46" s="183"/>
+      <c r="AH46" s="184"/>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B47" s="39"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="194"/>
-      <c r="E47" s="194"/>
-      <c r="F47" s="194"/>
-      <c r="G47" s="194"/>
-      <c r="H47" s="194"/>
-      <c r="I47" s="194"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="194"/>
-      <c r="L47" s="194"/>
-      <c r="M47" s="194"/>
-      <c r="N47" s="194"/>
-      <c r="O47" s="194"/>
-      <c r="P47" s="194"/>
-      <c r="Q47" s="194"/>
-      <c r="R47" s="194"/>
-      <c r="S47" s="194"/>
-      <c r="T47" s="194"/>
-      <c r="U47" s="194"/>
-      <c r="V47" s="194"/>
-      <c r="W47" s="194"/>
-      <c r="X47" s="194"/>
-      <c r="Y47" s="194"/>
-      <c r="Z47" s="194"/>
-      <c r="AA47" s="194"/>
-      <c r="AB47" s="194"/>
-      <c r="AC47" s="194"/>
-      <c r="AD47" s="194"/>
-      <c r="AE47" s="194"/>
-      <c r="AF47" s="194"/>
-      <c r="AG47" s="194"/>
-      <c r="AH47" s="195"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="183"/>
+      <c r="I47" s="183"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="183"/>
+      <c r="N47" s="183"/>
+      <c r="O47" s="183"/>
+      <c r="P47" s="183"/>
+      <c r="Q47" s="183"/>
+      <c r="R47" s="183"/>
+      <c r="S47" s="183"/>
+      <c r="T47" s="183"/>
+      <c r="U47" s="183"/>
+      <c r="V47" s="183"/>
+      <c r="W47" s="183"/>
+      <c r="X47" s="183"/>
+      <c r="Y47" s="183"/>
+      <c r="Z47" s="183"/>
+      <c r="AA47" s="183"/>
+      <c r="AB47" s="183"/>
+      <c r="AC47" s="183"/>
+      <c r="AD47" s="183"/>
+      <c r="AE47" s="183"/>
+      <c r="AF47" s="183"/>
+      <c r="AG47" s="183"/>
+      <c r="AH47" s="184"/>
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B48" s="39"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="194"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="194"/>
-      <c r="G48" s="194"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="194"/>
-      <c r="L48" s="194"/>
-      <c r="M48" s="194"/>
-      <c r="N48" s="194"/>
-      <c r="O48" s="194"/>
-      <c r="P48" s="194"/>
-      <c r="Q48" s="194"/>
-      <c r="R48" s="194"/>
-      <c r="S48" s="194"/>
-      <c r="T48" s="194"/>
-      <c r="U48" s="194"/>
-      <c r="V48" s="194"/>
-      <c r="W48" s="194"/>
-      <c r="X48" s="194"/>
-      <c r="Y48" s="194"/>
-      <c r="Z48" s="194"/>
-      <c r="AA48" s="194"/>
-      <c r="AB48" s="194"/>
-      <c r="AC48" s="194"/>
-      <c r="AD48" s="194"/>
-      <c r="AE48" s="194"/>
-      <c r="AF48" s="194"/>
-      <c r="AG48" s="194"/>
-      <c r="AH48" s="195"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="183"/>
+      <c r="H48" s="183"/>
+      <c r="I48" s="183"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="183"/>
+      <c r="L48" s="183"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="183"/>
+      <c r="O48" s="183"/>
+      <c r="P48" s="183"/>
+      <c r="Q48" s="183"/>
+      <c r="R48" s="183"/>
+      <c r="S48" s="183"/>
+      <c r="T48" s="183"/>
+      <c r="U48" s="183"/>
+      <c r="V48" s="183"/>
+      <c r="W48" s="183"/>
+      <c r="X48" s="183"/>
+      <c r="Y48" s="183"/>
+      <c r="Z48" s="183"/>
+      <c r="AA48" s="183"/>
+      <c r="AB48" s="183"/>
+      <c r="AC48" s="183"/>
+      <c r="AD48" s="183"/>
+      <c r="AE48" s="183"/>
+      <c r="AF48" s="183"/>
+      <c r="AG48" s="183"/>
+      <c r="AH48" s="184"/>
     </row>
     <row r="49" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B49" s="39"/>
-      <c r="C49" s="196"/>
-      <c r="D49" s="197"/>
-      <c r="E49" s="197"/>
-      <c r="F49" s="197"/>
-      <c r="G49" s="197"/>
-      <c r="H49" s="197"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="197"/>
-      <c r="K49" s="197"/>
-      <c r="L49" s="197"/>
-      <c r="M49" s="197"/>
-      <c r="N49" s="197"/>
-      <c r="O49" s="197"/>
-      <c r="P49" s="197"/>
-      <c r="Q49" s="197"/>
-      <c r="R49" s="197"/>
-      <c r="S49" s="197"/>
-      <c r="T49" s="197"/>
-      <c r="U49" s="197"/>
-      <c r="V49" s="197"/>
-      <c r="W49" s="197"/>
-      <c r="X49" s="197"/>
-      <c r="Y49" s="197"/>
-      <c r="Z49" s="197"/>
-      <c r="AA49" s="197"/>
-      <c r="AB49" s="197"/>
-      <c r="AC49" s="197"/>
-      <c r="AD49" s="197"/>
-      <c r="AE49" s="197"/>
-      <c r="AF49" s="197"/>
-      <c r="AG49" s="197"/>
-      <c r="AH49" s="198"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="186"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="186"/>
+      <c r="U49" s="186"/>
+      <c r="V49" s="186"/>
+      <c r="W49" s="186"/>
+      <c r="X49" s="186"/>
+      <c r="Y49" s="186"/>
+      <c r="Z49" s="186"/>
+      <c r="AA49" s="186"/>
+      <c r="AB49" s="186"/>
+      <c r="AC49" s="186"/>
+      <c r="AD49" s="186"/>
+      <c r="AE49" s="186"/>
+      <c r="AF49" s="186"/>
+      <c r="AG49" s="186"/>
+      <c r="AH49" s="187"/>
       <c r="AI49" s="63"/>
     </row>
     <row r="50" spans="2:35" x14ac:dyDescent="0.15">
@@ -8991,593 +8871,593 @@
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B58" s="39"/>
-      <c r="C58" s="165" t="s">
+      <c r="C58" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="166"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="140" t="s">
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="172"/>
+      <c r="H58" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="141"/>
-      <c r="J58" s="141"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141"/>
-      <c r="O58" s="141"/>
-      <c r="P58" s="141"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="141"/>
-      <c r="S58" s="141"/>
-      <c r="T58" s="141"/>
-      <c r="U58" s="141"/>
-      <c r="V58" s="141"/>
-      <c r="W58" s="141"/>
-      <c r="X58" s="141"/>
-      <c r="Y58" s="141"/>
-      <c r="Z58" s="141"/>
-      <c r="AA58" s="141"/>
-      <c r="AB58" s="141"/>
-      <c r="AC58" s="141"/>
-      <c r="AD58" s="141"/>
-      <c r="AE58" s="141"/>
-      <c r="AF58" s="141"/>
-      <c r="AG58" s="141"/>
-      <c r="AH58" s="142"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
+      <c r="U58" s="104"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="105"/>
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B59" s="39"/>
-      <c r="C59" s="165" t="s">
+      <c r="C59" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="140" t="s">
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="141"/>
-      <c r="M59" s="141"/>
-      <c r="N59" s="141"/>
-      <c r="O59" s="141"/>
-      <c r="P59" s="141"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="141"/>
-      <c r="S59" s="141"/>
-      <c r="T59" s="141"/>
-      <c r="U59" s="141"/>
-      <c r="V59" s="141"/>
-      <c r="W59" s="141"/>
-      <c r="X59" s="141"/>
-      <c r="Y59" s="141"/>
-      <c r="Z59" s="141"/>
-      <c r="AA59" s="141"/>
-      <c r="AB59" s="141"/>
-      <c r="AC59" s="141"/>
-      <c r="AD59" s="141"/>
-      <c r="AE59" s="141"/>
-      <c r="AF59" s="141"/>
-      <c r="AG59" s="141"/>
-      <c r="AH59" s="142"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="104"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="104"/>
+      <c r="U59" s="104"/>
+      <c r="V59" s="104"/>
+      <c r="W59" s="104"/>
+      <c r="X59" s="104"/>
+      <c r="Y59" s="104"/>
+      <c r="Z59" s="104"/>
+      <c r="AA59" s="104"/>
+      <c r="AB59" s="104"/>
+      <c r="AC59" s="104"/>
+      <c r="AD59" s="104"/>
+      <c r="AE59" s="104"/>
+      <c r="AF59" s="104"/>
+      <c r="AG59" s="104"/>
+      <c r="AH59" s="105"/>
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B60" s="39"/>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="166"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="166"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="166"/>
-      <c r="M60" s="166"/>
-      <c r="N60" s="166"/>
-      <c r="O60" s="166"/>
-      <c r="P60" s="166"/>
-      <c r="Q60" s="166"/>
-      <c r="R60" s="166"/>
-      <c r="S60" s="166"/>
-      <c r="T60" s="166"/>
-      <c r="U60" s="166"/>
-      <c r="V60" s="166"/>
-      <c r="W60" s="166"/>
-      <c r="X60" s="166"/>
-      <c r="Y60" s="166"/>
-      <c r="Z60" s="166"/>
-      <c r="AA60" s="166"/>
-      <c r="AB60" s="166"/>
-      <c r="AC60" s="166"/>
-      <c r="AD60" s="166"/>
-      <c r="AE60" s="166"/>
-      <c r="AF60" s="166"/>
-      <c r="AG60" s="166"/>
-      <c r="AH60" s="167"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="171"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="171"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="171"/>
+      <c r="R60" s="171"/>
+      <c r="S60" s="171"/>
+      <c r="T60" s="171"/>
+      <c r="U60" s="171"/>
+      <c r="V60" s="171"/>
+      <c r="W60" s="171"/>
+      <c r="X60" s="171"/>
+      <c r="Y60" s="171"/>
+      <c r="Z60" s="171"/>
+      <c r="AA60" s="171"/>
+      <c r="AB60" s="171"/>
+      <c r="AC60" s="171"/>
+      <c r="AD60" s="171"/>
+      <c r="AE60" s="171"/>
+      <c r="AF60" s="171"/>
+      <c r="AG60" s="171"/>
+      <c r="AH60" s="172"/>
     </row>
     <row r="61" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="39"/>
-      <c r="C61" s="165" t="s">
+      <c r="C61" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="166"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="165" t="s">
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="166"/>
-      <c r="J61" s="166"/>
-      <c r="K61" s="166"/>
-      <c r="L61" s="167"/>
-      <c r="M61" s="165" t="s">
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="172"/>
+      <c r="M61" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="N61" s="166"/>
-      <c r="O61" s="167"/>
-      <c r="P61" s="165" t="s">
+      <c r="N61" s="171"/>
+      <c r="O61" s="172"/>
+      <c r="P61" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="Q61" s="166"/>
-      <c r="R61" s="166"/>
-      <c r="S61" s="166"/>
-      <c r="T61" s="166"/>
-      <c r="U61" s="166"/>
-      <c r="V61" s="166"/>
-      <c r="W61" s="166"/>
-      <c r="X61" s="166"/>
-      <c r="Y61" s="166"/>
-      <c r="Z61" s="166"/>
-      <c r="AA61" s="166"/>
-      <c r="AB61" s="167"/>
-      <c r="AC61" s="165" t="s">
+      <c r="Q61" s="171"/>
+      <c r="R61" s="171"/>
+      <c r="S61" s="171"/>
+      <c r="T61" s="171"/>
+      <c r="U61" s="171"/>
+      <c r="V61" s="171"/>
+      <c r="W61" s="171"/>
+      <c r="X61" s="171"/>
+      <c r="Y61" s="171"/>
+      <c r="Z61" s="171"/>
+      <c r="AA61" s="171"/>
+      <c r="AB61" s="172"/>
+      <c r="AC61" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="AD61" s="166"/>
-      <c r="AE61" s="166"/>
-      <c r="AF61" s="166"/>
-      <c r="AG61" s="166"/>
-      <c r="AH61" s="167"/>
+      <c r="AD61" s="171"/>
+      <c r="AE61" s="171"/>
+      <c r="AF61" s="171"/>
+      <c r="AG61" s="171"/>
+      <c r="AH61" s="172"/>
     </row>
     <row r="62" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="39"/>
-      <c r="C62" s="143" t="s">
+      <c r="C62" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="145"/>
-      <c r="H62" s="143" t="s">
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="145"/>
-      <c r="M62" s="189">
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="169">
         <v>10</v>
       </c>
-      <c r="N62" s="189"/>
-      <c r="O62" s="189"/>
-      <c r="P62" s="188" t="s">
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="Q62" s="188"/>
-      <c r="R62" s="188"/>
-      <c r="S62" s="188"/>
-      <c r="T62" s="188"/>
-      <c r="U62" s="188"/>
-      <c r="V62" s="188"/>
-      <c r="W62" s="188"/>
-      <c r="X62" s="188"/>
-      <c r="Y62" s="188"/>
-      <c r="Z62" s="188"/>
-      <c r="AA62" s="188"/>
-      <c r="AB62" s="188"/>
-      <c r="AC62" s="143"/>
-      <c r="AD62" s="144"/>
-      <c r="AE62" s="144"/>
-      <c r="AF62" s="144"/>
-      <c r="AG62" s="144"/>
-      <c r="AH62" s="145"/>
+      <c r="Q62" s="168"/>
+      <c r="R62" s="168"/>
+      <c r="S62" s="168"/>
+      <c r="T62" s="168"/>
+      <c r="U62" s="168"/>
+      <c r="V62" s="168"/>
+      <c r="W62" s="168"/>
+      <c r="X62" s="168"/>
+      <c r="Y62" s="168"/>
+      <c r="Z62" s="168"/>
+      <c r="AA62" s="168"/>
+      <c r="AB62" s="168"/>
+      <c r="AC62" s="106"/>
+      <c r="AD62" s="107"/>
+      <c r="AE62" s="107"/>
+      <c r="AF62" s="107"/>
+      <c r="AG62" s="107"/>
+      <c r="AH62" s="108"/>
     </row>
     <row r="63" spans="2:35" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="39"/>
-      <c r="C63" s="143" t="s">
+      <c r="C63" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="145"/>
-      <c r="H63" s="143" t="s">
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="145"/>
-      <c r="M63" s="189">
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="169">
         <v>20</v>
       </c>
-      <c r="N63" s="189"/>
-      <c r="O63" s="189"/>
-      <c r="P63" s="188" t="s">
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="Q63" s="188"/>
-      <c r="R63" s="188"/>
-      <c r="S63" s="188"/>
-      <c r="T63" s="188"/>
-      <c r="U63" s="188"/>
-      <c r="V63" s="188"/>
-      <c r="W63" s="188"/>
-      <c r="X63" s="188"/>
-      <c r="Y63" s="188"/>
-      <c r="Z63" s="188"/>
-      <c r="AA63" s="188"/>
-      <c r="AB63" s="188"/>
-      <c r="AC63" s="143"/>
-      <c r="AD63" s="144"/>
-      <c r="AE63" s="144"/>
-      <c r="AF63" s="144"/>
-      <c r="AG63" s="144"/>
-      <c r="AH63" s="145"/>
+      <c r="Q63" s="168"/>
+      <c r="R63" s="168"/>
+      <c r="S63" s="168"/>
+      <c r="T63" s="168"/>
+      <c r="U63" s="168"/>
+      <c r="V63" s="168"/>
+      <c r="W63" s="168"/>
+      <c r="X63" s="168"/>
+      <c r="Y63" s="168"/>
+      <c r="Z63" s="168"/>
+      <c r="AA63" s="168"/>
+      <c r="AB63" s="168"/>
+      <c r="AC63" s="106"/>
+      <c r="AD63" s="107"/>
+      <c r="AE63" s="107"/>
+      <c r="AF63" s="107"/>
+      <c r="AG63" s="107"/>
+      <c r="AH63" s="108"/>
     </row>
     <row r="64" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="39"/>
-      <c r="C64" s="143" t="s">
+      <c r="C64" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="143" t="s">
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="I64" s="144"/>
-      <c r="J64" s="144"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="145"/>
-      <c r="M64" s="189">
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="107"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="169">
         <v>10</v>
       </c>
-      <c r="N64" s="189"/>
-      <c r="O64" s="189"/>
-      <c r="P64" s="188" t="s">
+      <c r="N64" s="169"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="Q64" s="188"/>
-      <c r="R64" s="188"/>
-      <c r="S64" s="188"/>
-      <c r="T64" s="188"/>
-      <c r="U64" s="188"/>
-      <c r="V64" s="188"/>
-      <c r="W64" s="188"/>
-      <c r="X64" s="188"/>
-      <c r="Y64" s="188"/>
-      <c r="Z64" s="188"/>
-      <c r="AA64" s="188"/>
-      <c r="AB64" s="188"/>
-      <c r="AC64" s="143"/>
-      <c r="AD64" s="144"/>
-      <c r="AE64" s="144"/>
-      <c r="AF64" s="144"/>
-      <c r="AG64" s="144"/>
-      <c r="AH64" s="145"/>
+      <c r="Q64" s="168"/>
+      <c r="R64" s="168"/>
+      <c r="S64" s="168"/>
+      <c r="T64" s="168"/>
+      <c r="U64" s="168"/>
+      <c r="V64" s="168"/>
+      <c r="W64" s="168"/>
+      <c r="X64" s="168"/>
+      <c r="Y64" s="168"/>
+      <c r="Z64" s="168"/>
+      <c r="AA64" s="168"/>
+      <c r="AB64" s="168"/>
+      <c r="AC64" s="106"/>
+      <c r="AD64" s="107"/>
+      <c r="AE64" s="107"/>
+      <c r="AF64" s="107"/>
+      <c r="AG64" s="107"/>
+      <c r="AH64" s="108"/>
     </row>
     <row r="65" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="39"/>
-      <c r="C65" s="143" t="s">
+      <c r="C65" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="145"/>
-      <c r="H65" s="143" t="s">
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="145"/>
-      <c r="M65" s="189">
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="169">
         <v>14</v>
       </c>
-      <c r="N65" s="189"/>
-      <c r="O65" s="189"/>
-      <c r="P65" s="188" t="s">
+      <c r="N65" s="169"/>
+      <c r="O65" s="169"/>
+      <c r="P65" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="Q65" s="188"/>
-      <c r="R65" s="188"/>
-      <c r="S65" s="188"/>
-      <c r="T65" s="188"/>
-      <c r="U65" s="188"/>
-      <c r="V65" s="188"/>
-      <c r="W65" s="188"/>
-      <c r="X65" s="188"/>
-      <c r="Y65" s="188"/>
-      <c r="Z65" s="188"/>
-      <c r="AA65" s="188"/>
-      <c r="AB65" s="188"/>
-      <c r="AC65" s="143"/>
-      <c r="AD65" s="144"/>
-      <c r="AE65" s="144"/>
-      <c r="AF65" s="144"/>
-      <c r="AG65" s="144"/>
-      <c r="AH65" s="145"/>
+      <c r="Q65" s="168"/>
+      <c r="R65" s="168"/>
+      <c r="S65" s="168"/>
+      <c r="T65" s="168"/>
+      <c r="U65" s="168"/>
+      <c r="V65" s="168"/>
+      <c r="W65" s="168"/>
+      <c r="X65" s="168"/>
+      <c r="Y65" s="168"/>
+      <c r="Z65" s="168"/>
+      <c r="AA65" s="168"/>
+      <c r="AB65" s="168"/>
+      <c r="AC65" s="106"/>
+      <c r="AD65" s="107"/>
+      <c r="AE65" s="107"/>
+      <c r="AF65" s="107"/>
+      <c r="AG65" s="107"/>
+      <c r="AH65" s="108"/>
     </row>
     <row r="66" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="39"/>
-      <c r="C66" s="143" t="s">
+      <c r="C66" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="144"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="144"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="143" t="s">
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="I66" s="144"/>
-      <c r="J66" s="144"/>
-      <c r="K66" s="144"/>
-      <c r="L66" s="145"/>
-      <c r="M66" s="189">
+      <c r="I66" s="107"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="169">
         <v>20</v>
       </c>
-      <c r="N66" s="189"/>
-      <c r="O66" s="189"/>
-      <c r="P66" s="188" t="s">
+      <c r="N66" s="169"/>
+      <c r="O66" s="169"/>
+      <c r="P66" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="Q66" s="188"/>
-      <c r="R66" s="188"/>
-      <c r="S66" s="188"/>
-      <c r="T66" s="188"/>
-      <c r="U66" s="188"/>
-      <c r="V66" s="188"/>
-      <c r="W66" s="188"/>
-      <c r="X66" s="188"/>
-      <c r="Y66" s="188"/>
-      <c r="Z66" s="188"/>
-      <c r="AA66" s="188"/>
-      <c r="AB66" s="188"/>
-      <c r="AC66" s="143"/>
-      <c r="AD66" s="144"/>
-      <c r="AE66" s="144"/>
-      <c r="AF66" s="144"/>
-      <c r="AG66" s="144"/>
-      <c r="AH66" s="145"/>
+      <c r="Q66" s="168"/>
+      <c r="R66" s="168"/>
+      <c r="S66" s="168"/>
+      <c r="T66" s="168"/>
+      <c r="U66" s="168"/>
+      <c r="V66" s="168"/>
+      <c r="W66" s="168"/>
+      <c r="X66" s="168"/>
+      <c r="Y66" s="168"/>
+      <c r="Z66" s="168"/>
+      <c r="AA66" s="168"/>
+      <c r="AB66" s="168"/>
+      <c r="AC66" s="106"/>
+      <c r="AD66" s="107"/>
+      <c r="AE66" s="107"/>
+      <c r="AF66" s="107"/>
+      <c r="AG66" s="107"/>
+      <c r="AH66" s="108"/>
     </row>
     <row r="67" spans="2:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="39"/>
-      <c r="C67" s="143" t="s">
+      <c r="C67" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="144"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="144"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="143" t="s">
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="I67" s="144"/>
-      <c r="J67" s="144"/>
-      <c r="K67" s="144"/>
-      <c r="L67" s="145"/>
-      <c r="M67" s="189">
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="169">
         <v>8</v>
       </c>
-      <c r="N67" s="189"/>
-      <c r="O67" s="189"/>
-      <c r="P67" s="188" t="s">
+      <c r="N67" s="169"/>
+      <c r="O67" s="169"/>
+      <c r="P67" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="Q67" s="188"/>
-      <c r="R67" s="188"/>
-      <c r="S67" s="188"/>
-      <c r="T67" s="188"/>
-      <c r="U67" s="188"/>
-      <c r="V67" s="188"/>
-      <c r="W67" s="188"/>
-      <c r="X67" s="188"/>
-      <c r="Y67" s="188"/>
-      <c r="Z67" s="188"/>
-      <c r="AA67" s="188"/>
-      <c r="AB67" s="188"/>
-      <c r="AC67" s="143"/>
-      <c r="AD67" s="144"/>
-      <c r="AE67" s="144"/>
-      <c r="AF67" s="144"/>
-      <c r="AG67" s="144"/>
-      <c r="AH67" s="145"/>
+      <c r="Q67" s="168"/>
+      <c r="R67" s="168"/>
+      <c r="S67" s="168"/>
+      <c r="T67" s="168"/>
+      <c r="U67" s="168"/>
+      <c r="V67" s="168"/>
+      <c r="W67" s="168"/>
+      <c r="X67" s="168"/>
+      <c r="Y67" s="168"/>
+      <c r="Z67" s="168"/>
+      <c r="AA67" s="168"/>
+      <c r="AB67" s="168"/>
+      <c r="AC67" s="106"/>
+      <c r="AD67" s="107"/>
+      <c r="AE67" s="107"/>
+      <c r="AF67" s="107"/>
+      <c r="AG67" s="107"/>
+      <c r="AH67" s="108"/>
     </row>
     <row r="68" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="39"/>
-      <c r="C68" s="143" t="s">
+      <c r="C68" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="145"/>
-      <c r="H68" s="143" t="s">
+      <c r="D68" s="107"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="144"/>
-      <c r="L68" s="145"/>
-      <c r="M68" s="189">
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="169">
         <v>7</v>
       </c>
-      <c r="N68" s="189"/>
-      <c r="O68" s="189"/>
-      <c r="P68" s="188" t="s">
+      <c r="N68" s="169"/>
+      <c r="O68" s="169"/>
+      <c r="P68" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="Q68" s="188"/>
-      <c r="R68" s="188"/>
-      <c r="S68" s="188"/>
-      <c r="T68" s="188"/>
-      <c r="U68" s="188"/>
-      <c r="V68" s="188"/>
-      <c r="W68" s="188"/>
-      <c r="X68" s="188"/>
-      <c r="Y68" s="188"/>
-      <c r="Z68" s="188"/>
-      <c r="AA68" s="188"/>
-      <c r="AB68" s="188"/>
-      <c r="AC68" s="143"/>
-      <c r="AD68" s="144"/>
-      <c r="AE68" s="144"/>
-      <c r="AF68" s="144"/>
-      <c r="AG68" s="144"/>
-      <c r="AH68" s="145"/>
+      <c r="Q68" s="168"/>
+      <c r="R68" s="168"/>
+      <c r="S68" s="168"/>
+      <c r="T68" s="168"/>
+      <c r="U68" s="168"/>
+      <c r="V68" s="168"/>
+      <c r="W68" s="168"/>
+      <c r="X68" s="168"/>
+      <c r="Y68" s="168"/>
+      <c r="Z68" s="168"/>
+      <c r="AA68" s="168"/>
+      <c r="AB68" s="168"/>
+      <c r="AC68" s="106"/>
+      <c r="AD68" s="107"/>
+      <c r="AE68" s="107"/>
+      <c r="AF68" s="107"/>
+      <c r="AG68" s="107"/>
+      <c r="AH68" s="108"/>
     </row>
     <row r="69" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="39"/>
-      <c r="C69" s="143" t="s">
+      <c r="C69" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="145"/>
-      <c r="H69" s="143" t="s">
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="144"/>
-      <c r="L69" s="145"/>
-      <c r="M69" s="189">
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="169">
         <v>20</v>
       </c>
-      <c r="N69" s="189"/>
-      <c r="O69" s="189"/>
-      <c r="P69" s="188" t="s">
+      <c r="N69" s="169"/>
+      <c r="O69" s="169"/>
+      <c r="P69" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="Q69" s="188"/>
-      <c r="R69" s="188"/>
-      <c r="S69" s="188"/>
-      <c r="T69" s="188"/>
-      <c r="U69" s="188"/>
-      <c r="V69" s="188"/>
-      <c r="W69" s="188"/>
-      <c r="X69" s="188"/>
-      <c r="Y69" s="188"/>
-      <c r="Z69" s="188"/>
-      <c r="AA69" s="188"/>
-      <c r="AB69" s="188"/>
-      <c r="AC69" s="143"/>
-      <c r="AD69" s="144"/>
-      <c r="AE69" s="144"/>
-      <c r="AF69" s="144"/>
-      <c r="AG69" s="144"/>
-      <c r="AH69" s="145"/>
+      <c r="Q69" s="168"/>
+      <c r="R69" s="168"/>
+      <c r="S69" s="168"/>
+      <c r="T69" s="168"/>
+      <c r="U69" s="168"/>
+      <c r="V69" s="168"/>
+      <c r="W69" s="168"/>
+      <c r="X69" s="168"/>
+      <c r="Y69" s="168"/>
+      <c r="Z69" s="168"/>
+      <c r="AA69" s="168"/>
+      <c r="AB69" s="168"/>
+      <c r="AC69" s="106"/>
+      <c r="AD69" s="107"/>
+      <c r="AE69" s="107"/>
+      <c r="AF69" s="107"/>
+      <c r="AG69" s="107"/>
+      <c r="AH69" s="108"/>
     </row>
     <row r="70" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B70" s="39"/>
-      <c r="C70" s="143" t="s">
+      <c r="C70" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="143" t="s">
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="144"/>
-      <c r="L70" s="145"/>
-      <c r="M70" s="189">
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="169">
         <v>30</v>
       </c>
-      <c r="N70" s="189"/>
-      <c r="O70" s="189"/>
-      <c r="P70" s="188" t="s">
+      <c r="N70" s="169"/>
+      <c r="O70" s="169"/>
+      <c r="P70" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="Q70" s="188"/>
-      <c r="R70" s="188"/>
-      <c r="S70" s="188"/>
-      <c r="T70" s="188"/>
-      <c r="U70" s="188"/>
-      <c r="V70" s="188"/>
-      <c r="W70" s="188"/>
-      <c r="X70" s="188"/>
-      <c r="Y70" s="188"/>
-      <c r="Z70" s="188"/>
-      <c r="AA70" s="188"/>
-      <c r="AB70" s="188"/>
-      <c r="AC70" s="143"/>
-      <c r="AD70" s="144"/>
-      <c r="AE70" s="144"/>
-      <c r="AF70" s="144"/>
-      <c r="AG70" s="144"/>
-      <c r="AH70" s="145"/>
+      <c r="Q70" s="168"/>
+      <c r="R70" s="168"/>
+      <c r="S70" s="168"/>
+      <c r="T70" s="168"/>
+      <c r="U70" s="168"/>
+      <c r="V70" s="168"/>
+      <c r="W70" s="168"/>
+      <c r="X70" s="168"/>
+      <c r="Y70" s="168"/>
+      <c r="Z70" s="168"/>
+      <c r="AA70" s="168"/>
+      <c r="AB70" s="168"/>
+      <c r="AC70" s="106"/>
+      <c r="AD70" s="107"/>
+      <c r="AE70" s="107"/>
+      <c r="AF70" s="107"/>
+      <c r="AG70" s="107"/>
+      <c r="AH70" s="108"/>
     </row>
     <row r="71" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="39"/>
-      <c r="C71" s="143" t="s">
+      <c r="C71" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="144"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="144"/>
-      <c r="G71" s="145"/>
-      <c r="H71" s="143" t="s">
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="144"/>
-      <c r="L71" s="145"/>
-      <c r="M71" s="189" t="s">
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="108"/>
+      <c r="M71" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="N71" s="189"/>
-      <c r="O71" s="189"/>
-      <c r="P71" s="188" t="s">
+      <c r="N71" s="169"/>
+      <c r="O71" s="169"/>
+      <c r="P71" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="Q71" s="188"/>
-      <c r="R71" s="188"/>
-      <c r="S71" s="188"/>
-      <c r="T71" s="188"/>
-      <c r="U71" s="188"/>
-      <c r="V71" s="188"/>
-      <c r="W71" s="188"/>
-      <c r="X71" s="188"/>
-      <c r="Y71" s="188"/>
-      <c r="Z71" s="188"/>
-      <c r="AA71" s="188"/>
-      <c r="AB71" s="188"/>
-      <c r="AC71" s="143"/>
-      <c r="AD71" s="144"/>
-      <c r="AE71" s="144"/>
-      <c r="AF71" s="144"/>
-      <c r="AG71" s="144"/>
-      <c r="AH71" s="145"/>
+      <c r="Q71" s="168"/>
+      <c r="R71" s="168"/>
+      <c r="S71" s="168"/>
+      <c r="T71" s="168"/>
+      <c r="U71" s="168"/>
+      <c r="V71" s="168"/>
+      <c r="W71" s="168"/>
+      <c r="X71" s="168"/>
+      <c r="Y71" s="168"/>
+      <c r="Z71" s="168"/>
+      <c r="AA71" s="168"/>
+      <c r="AB71" s="168"/>
+      <c r="AC71" s="106"/>
+      <c r="AD71" s="107"/>
+      <c r="AE71" s="107"/>
+      <c r="AF71" s="107"/>
+      <c r="AG71" s="107"/>
+      <c r="AH71" s="108"/>
     </row>
     <row r="72" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="22"/>
@@ -9689,198 +9569,198 @@
     </row>
     <row r="75" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="39"/>
-      <c r="C75" s="165" t="s">
+      <c r="C75" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="166"/>
-      <c r="E75" s="166"/>
-      <c r="F75" s="166"/>
-      <c r="G75" s="167"/>
-      <c r="H75" s="140" t="s">
+      <c r="D75" s="171"/>
+      <c r="E75" s="171"/>
+      <c r="F75" s="171"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I75" s="141"/>
-      <c r="J75" s="141"/>
-      <c r="K75" s="141"/>
-      <c r="L75" s="141"/>
-      <c r="M75" s="141"/>
-      <c r="N75" s="141"/>
-      <c r="O75" s="141"/>
-      <c r="P75" s="141"/>
-      <c r="Q75" s="141"/>
-      <c r="R75" s="141"/>
-      <c r="S75" s="141"/>
-      <c r="T75" s="141"/>
-      <c r="U75" s="141"/>
-      <c r="V75" s="141"/>
-      <c r="W75" s="141"/>
-      <c r="X75" s="141"/>
-      <c r="Y75" s="141"/>
-      <c r="Z75" s="141"/>
-      <c r="AA75" s="141"/>
-      <c r="AB75" s="141"/>
-      <c r="AC75" s="141"/>
-      <c r="AD75" s="141"/>
-      <c r="AE75" s="141"/>
-      <c r="AF75" s="141"/>
-      <c r="AG75" s="141"/>
-      <c r="AH75" s="142"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="104"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="104"/>
+      <c r="O75" s="104"/>
+      <c r="P75" s="104"/>
+      <c r="Q75" s="104"/>
+      <c r="R75" s="104"/>
+      <c r="S75" s="104"/>
+      <c r="T75" s="104"/>
+      <c r="U75" s="104"/>
+      <c r="V75" s="104"/>
+      <c r="W75" s="104"/>
+      <c r="X75" s="104"/>
+      <c r="Y75" s="104"/>
+      <c r="Z75" s="104"/>
+      <c r="AA75" s="104"/>
+      <c r="AB75" s="104"/>
+      <c r="AC75" s="104"/>
+      <c r="AD75" s="104"/>
+      <c r="AE75" s="104"/>
+      <c r="AF75" s="104"/>
+      <c r="AG75" s="104"/>
+      <c r="AH75" s="105"/>
     </row>
     <row r="76" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="39"/>
-      <c r="C76" s="165" t="s">
+      <c r="C76" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="166"/>
-      <c r="E76" s="166"/>
-      <c r="F76" s="166"/>
-      <c r="G76" s="167"/>
-      <c r="H76" s="140" t="s">
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
+      <c r="F76" s="171"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="I76" s="141"/>
-      <c r="J76" s="141"/>
-      <c r="K76" s="141"/>
-      <c r="L76" s="141"/>
-      <c r="M76" s="141"/>
-      <c r="N76" s="141"/>
-      <c r="O76" s="141"/>
-      <c r="P76" s="141"/>
-      <c r="Q76" s="141"/>
-      <c r="R76" s="141"/>
-      <c r="S76" s="141"/>
-      <c r="T76" s="141"/>
-      <c r="U76" s="141"/>
-      <c r="V76" s="141"/>
-      <c r="W76" s="141"/>
-      <c r="X76" s="141"/>
-      <c r="Y76" s="141"/>
-      <c r="Z76" s="141"/>
-      <c r="AA76" s="141"/>
-      <c r="AB76" s="141"/>
-      <c r="AC76" s="141"/>
-      <c r="AD76" s="141"/>
-      <c r="AE76" s="141"/>
-      <c r="AF76" s="141"/>
-      <c r="AG76" s="141"/>
-      <c r="AH76" s="142"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="104"/>
+      <c r="M76" s="104"/>
+      <c r="N76" s="104"/>
+      <c r="O76" s="104"/>
+      <c r="P76" s="104"/>
+      <c r="Q76" s="104"/>
+      <c r="R76" s="104"/>
+      <c r="S76" s="104"/>
+      <c r="T76" s="104"/>
+      <c r="U76" s="104"/>
+      <c r="V76" s="104"/>
+      <c r="W76" s="104"/>
+      <c r="X76" s="104"/>
+      <c r="Y76" s="104"/>
+      <c r="Z76" s="104"/>
+      <c r="AA76" s="104"/>
+      <c r="AB76" s="104"/>
+      <c r="AC76" s="104"/>
+      <c r="AD76" s="104"/>
+      <c r="AE76" s="104"/>
+      <c r="AF76" s="104"/>
+      <c r="AG76" s="104"/>
+      <c r="AH76" s="105"/>
     </row>
     <row r="77" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="39"/>
-      <c r="C77" s="165" t="s">
+      <c r="C77" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="166"/>
-      <c r="E77" s="166"/>
-      <c r="F77" s="166"/>
-      <c r="G77" s="167"/>
-      <c r="H77" s="140" t="s">
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="G77" s="172"/>
+      <c r="H77" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="I77" s="141"/>
-      <c r="J77" s="141"/>
-      <c r="K77" s="141"/>
-      <c r="L77" s="141"/>
-      <c r="M77" s="141"/>
-      <c r="N77" s="141"/>
-      <c r="O77" s="141"/>
-      <c r="P77" s="141"/>
-      <c r="Q77" s="141"/>
-      <c r="R77" s="141"/>
-      <c r="S77" s="141"/>
-      <c r="T77" s="141"/>
-      <c r="U77" s="141"/>
-      <c r="V77" s="141"/>
-      <c r="W77" s="141"/>
-      <c r="X77" s="141"/>
-      <c r="Y77" s="141"/>
-      <c r="Z77" s="141"/>
-      <c r="AA77" s="141"/>
-      <c r="AB77" s="141"/>
-      <c r="AC77" s="141"/>
-      <c r="AD77" s="141"/>
-      <c r="AE77" s="141"/>
-      <c r="AF77" s="141"/>
-      <c r="AG77" s="141"/>
-      <c r="AH77" s="142"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="104"/>
+      <c r="N77" s="104"/>
+      <c r="O77" s="104"/>
+      <c r="P77" s="104"/>
+      <c r="Q77" s="104"/>
+      <c r="R77" s="104"/>
+      <c r="S77" s="104"/>
+      <c r="T77" s="104"/>
+      <c r="U77" s="104"/>
+      <c r="V77" s="104"/>
+      <c r="W77" s="104"/>
+      <c r="X77" s="104"/>
+      <c r="Y77" s="104"/>
+      <c r="Z77" s="104"/>
+      <c r="AA77" s="104"/>
+      <c r="AB77" s="104"/>
+      <c r="AC77" s="104"/>
+      <c r="AD77" s="104"/>
+      <c r="AE77" s="104"/>
+      <c r="AF77" s="104"/>
+      <c r="AG77" s="104"/>
+      <c r="AH77" s="105"/>
     </row>
     <row r="78" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="39"/>
-      <c r="C78" s="165" t="s">
+      <c r="C78" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="D78" s="166"/>
-      <c r="E78" s="166"/>
-      <c r="F78" s="166"/>
-      <c r="G78" s="167"/>
-      <c r="H78" s="140" t="s">
+      <c r="D78" s="171"/>
+      <c r="E78" s="171"/>
+      <c r="F78" s="171"/>
+      <c r="G78" s="172"/>
+      <c r="H78" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="I78" s="141"/>
-      <c r="J78" s="141"/>
-      <c r="K78" s="141"/>
-      <c r="L78" s="141"/>
-      <c r="M78" s="141"/>
-      <c r="N78" s="141"/>
-      <c r="O78" s="141"/>
-      <c r="P78" s="141"/>
-      <c r="Q78" s="141"/>
-      <c r="R78" s="141"/>
-      <c r="S78" s="141"/>
-      <c r="T78" s="141"/>
-      <c r="U78" s="141"/>
-      <c r="V78" s="141"/>
-      <c r="W78" s="141"/>
-      <c r="X78" s="141"/>
-      <c r="Y78" s="141"/>
-      <c r="Z78" s="141"/>
-      <c r="AA78" s="141"/>
-      <c r="AB78" s="141"/>
-      <c r="AC78" s="141"/>
-      <c r="AD78" s="141"/>
-      <c r="AE78" s="141"/>
-      <c r="AF78" s="141"/>
-      <c r="AG78" s="141"/>
-      <c r="AH78" s="142"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="104"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="104"/>
+      <c r="P78" s="104"/>
+      <c r="Q78" s="104"/>
+      <c r="R78" s="104"/>
+      <c r="S78" s="104"/>
+      <c r="T78" s="104"/>
+      <c r="U78" s="104"/>
+      <c r="V78" s="104"/>
+      <c r="W78" s="104"/>
+      <c r="X78" s="104"/>
+      <c r="Y78" s="104"/>
+      <c r="Z78" s="104"/>
+      <c r="AA78" s="104"/>
+      <c r="AB78" s="104"/>
+      <c r="AC78" s="104"/>
+      <c r="AD78" s="104"/>
+      <c r="AE78" s="104"/>
+      <c r="AF78" s="104"/>
+      <c r="AG78" s="104"/>
+      <c r="AH78" s="105"/>
     </row>
     <row r="79" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="39"/>
-      <c r="C79" s="165" t="s">
+      <c r="C79" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="D79" s="166"/>
-      <c r="E79" s="166"/>
-      <c r="F79" s="166"/>
-      <c r="G79" s="167"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="171"/>
+      <c r="F79" s="171"/>
+      <c r="G79" s="172"/>
       <c r="H79" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="I79" s="141"/>
-      <c r="J79" s="141"/>
-      <c r="K79" s="141"/>
-      <c r="L79" s="141"/>
-      <c r="M79" s="141"/>
-      <c r="N79" s="141"/>
-      <c r="O79" s="141"/>
-      <c r="P79" s="141"/>
-      <c r="Q79" s="141"/>
-      <c r="R79" s="141"/>
-      <c r="S79" s="141"/>
-      <c r="T79" s="141"/>
-      <c r="U79" s="141"/>
-      <c r="V79" s="141"/>
-      <c r="W79" s="141"/>
-      <c r="X79" s="141"/>
-      <c r="Y79" s="141"/>
-      <c r="Z79" s="141"/>
-      <c r="AA79" s="141"/>
-      <c r="AB79" s="141"/>
-      <c r="AC79" s="141"/>
-      <c r="AD79" s="141"/>
-      <c r="AE79" s="141"/>
-      <c r="AF79" s="141"/>
-      <c r="AG79" s="141"/>
-      <c r="AH79" s="142"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="104"/>
+      <c r="M79" s="104"/>
+      <c r="N79" s="104"/>
+      <c r="O79" s="104"/>
+      <c r="P79" s="104"/>
+      <c r="Q79" s="104"/>
+      <c r="R79" s="104"/>
+      <c r="S79" s="104"/>
+      <c r="T79" s="104"/>
+      <c r="U79" s="104"/>
+      <c r="V79" s="104"/>
+      <c r="W79" s="104"/>
+      <c r="X79" s="104"/>
+      <c r="Y79" s="104"/>
+      <c r="Z79" s="104"/>
+      <c r="AA79" s="104"/>
+      <c r="AB79" s="104"/>
+      <c r="AC79" s="104"/>
+      <c r="AD79" s="104"/>
+      <c r="AE79" s="104"/>
+      <c r="AF79" s="104"/>
+      <c r="AG79" s="104"/>
+      <c r="AH79" s="105"/>
     </row>
     <row r="80" spans="2:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="39"/>
@@ -9919,118 +9799,118 @@
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B81" s="39"/>
-      <c r="C81" s="165" t="s">
+      <c r="C81" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="166"/>
-      <c r="E81" s="166"/>
-      <c r="F81" s="166"/>
-      <c r="G81" s="166"/>
-      <c r="H81" s="166"/>
-      <c r="I81" s="166"/>
-      <c r="J81" s="166"/>
-      <c r="K81" s="166"/>
-      <c r="L81" s="166"/>
-      <c r="M81" s="166"/>
-      <c r="N81" s="166"/>
-      <c r="O81" s="166"/>
-      <c r="P81" s="166"/>
-      <c r="Q81" s="166"/>
-      <c r="R81" s="166"/>
-      <c r="S81" s="166"/>
-      <c r="T81" s="166"/>
-      <c r="U81" s="166"/>
-      <c r="V81" s="166"/>
-      <c r="W81" s="166"/>
-      <c r="X81" s="166"/>
-      <c r="Y81" s="166"/>
-      <c r="Z81" s="166"/>
-      <c r="AA81" s="166"/>
-      <c r="AB81" s="166"/>
-      <c r="AC81" s="166"/>
-      <c r="AD81" s="166"/>
-      <c r="AE81" s="166"/>
-      <c r="AF81" s="166"/>
-      <c r="AG81" s="166"/>
-      <c r="AH81" s="167"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="171"/>
+      <c r="F81" s="171"/>
+      <c r="G81" s="171"/>
+      <c r="H81" s="171"/>
+      <c r="I81" s="171"/>
+      <c r="J81" s="171"/>
+      <c r="K81" s="171"/>
+      <c r="L81" s="171"/>
+      <c r="M81" s="171"/>
+      <c r="N81" s="171"/>
+      <c r="O81" s="171"/>
+      <c r="P81" s="171"/>
+      <c r="Q81" s="171"/>
+      <c r="R81" s="171"/>
+      <c r="S81" s="171"/>
+      <c r="T81" s="171"/>
+      <c r="U81" s="171"/>
+      <c r="V81" s="171"/>
+      <c r="W81" s="171"/>
+      <c r="X81" s="171"/>
+      <c r="Y81" s="171"/>
+      <c r="Z81" s="171"/>
+      <c r="AA81" s="171"/>
+      <c r="AB81" s="171"/>
+      <c r="AC81" s="171"/>
+      <c r="AD81" s="171"/>
+      <c r="AE81" s="171"/>
+      <c r="AF81" s="171"/>
+      <c r="AG81" s="171"/>
+      <c r="AH81" s="172"/>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B82" s="39"/>
-      <c r="C82" s="168" t="s">
+      <c r="C82" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="D82" s="169"/>
-      <c r="E82" s="169"/>
-      <c r="F82" s="169"/>
-      <c r="G82" s="170"/>
-      <c r="H82" s="168" t="s">
+      <c r="D82" s="166"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="166"/>
+      <c r="G82" s="167"/>
+      <c r="H82" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="I82" s="169"/>
-      <c r="J82" s="169"/>
-      <c r="K82" s="169"/>
-      <c r="L82" s="169"/>
-      <c r="M82" s="169"/>
-      <c r="N82" s="169"/>
-      <c r="O82" s="169"/>
-      <c r="P82" s="169"/>
-      <c r="Q82" s="169"/>
-      <c r="R82" s="169"/>
-      <c r="S82" s="169"/>
-      <c r="T82" s="169"/>
-      <c r="U82" s="169"/>
-      <c r="V82" s="169"/>
-      <c r="W82" s="169"/>
-      <c r="X82" s="169"/>
-      <c r="Y82" s="169"/>
-      <c r="Z82" s="169"/>
-      <c r="AA82" s="169"/>
-      <c r="AB82" s="169"/>
-      <c r="AC82" s="169"/>
-      <c r="AD82" s="169"/>
-      <c r="AE82" s="169"/>
-      <c r="AF82" s="169"/>
-      <c r="AG82" s="169"/>
-      <c r="AH82" s="170"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="166"/>
+      <c r="M82" s="166"/>
+      <c r="N82" s="166"/>
+      <c r="O82" s="166"/>
+      <c r="P82" s="166"/>
+      <c r="Q82" s="166"/>
+      <c r="R82" s="166"/>
+      <c r="S82" s="166"/>
+      <c r="T82" s="166"/>
+      <c r="U82" s="166"/>
+      <c r="V82" s="166"/>
+      <c r="W82" s="166"/>
+      <c r="X82" s="166"/>
+      <c r="Y82" s="166"/>
+      <c r="Z82" s="166"/>
+      <c r="AA82" s="166"/>
+      <c r="AB82" s="166"/>
+      <c r="AC82" s="166"/>
+      <c r="AD82" s="166"/>
+      <c r="AE82" s="166"/>
+      <c r="AF82" s="166"/>
+      <c r="AG82" s="166"/>
+      <c r="AH82" s="167"/>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B83" s="39"/>
-      <c r="C83" s="140" t="s">
+      <c r="C83" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="140" t="s">
+      <c r="D83" s="104"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="I83" s="141"/>
-      <c r="J83" s="141"/>
-      <c r="K83" s="141"/>
-      <c r="L83" s="141"/>
-      <c r="M83" s="141"/>
-      <c r="N83" s="141"/>
-      <c r="O83" s="141"/>
-      <c r="P83" s="141"/>
-      <c r="Q83" s="141"/>
-      <c r="R83" s="141"/>
-      <c r="S83" s="141"/>
-      <c r="T83" s="141"/>
-      <c r="U83" s="141"/>
-      <c r="V83" s="141"/>
-      <c r="W83" s="141"/>
-      <c r="X83" s="141"/>
-      <c r="Y83" s="141"/>
-      <c r="Z83" s="141"/>
-      <c r="AA83" s="141"/>
-      <c r="AB83" s="141"/>
-      <c r="AC83" s="141"/>
-      <c r="AD83" s="141"/>
-      <c r="AE83" s="141"/>
-      <c r="AF83" s="141"/>
-      <c r="AG83" s="141"/>
-      <c r="AH83" s="142"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="104"/>
+      <c r="L83" s="104"/>
+      <c r="M83" s="104"/>
+      <c r="N83" s="104"/>
+      <c r="O83" s="104"/>
+      <c r="P83" s="104"/>
+      <c r="Q83" s="104"/>
+      <c r="R83" s="104"/>
+      <c r="S83" s="104"/>
+      <c r="T83" s="104"/>
+      <c r="U83" s="104"/>
+      <c r="V83" s="104"/>
+      <c r="W83" s="104"/>
+      <c r="X83" s="104"/>
+      <c r="Y83" s="104"/>
+      <c r="Z83" s="104"/>
+      <c r="AA83" s="104"/>
+      <c r="AB83" s="104"/>
+      <c r="AC83" s="104"/>
+      <c r="AD83" s="104"/>
+      <c r="AE83" s="104"/>
+      <c r="AF83" s="104"/>
+      <c r="AG83" s="104"/>
+      <c r="AH83" s="105"/>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A84" s="39"/>
@@ -10182,47 +10062,58 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="AC69:AH69"/>
-    <mergeCell ref="AC70:AH70"/>
-    <mergeCell ref="AC71:AH71"/>
-    <mergeCell ref="H75:AH75"/>
-    <mergeCell ref="H76:AH76"/>
-    <mergeCell ref="H77:AH77"/>
-    <mergeCell ref="P68:AB68"/>
-    <mergeCell ref="P69:AB69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="P70:AB70"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="P71:AB71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AC63:AH63"/>
-    <mergeCell ref="AC64:AH64"/>
-    <mergeCell ref="AC65:AH65"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:AB61"/>
-    <mergeCell ref="P62:AB62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P63:AB63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D18"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H78:AH78"/>
+    <mergeCell ref="H79:AH79"/>
+    <mergeCell ref="C81:AH81"/>
+    <mergeCell ref="H82:AH82"/>
+    <mergeCell ref="H83:AH83"/>
+    <mergeCell ref="AC66:AH66"/>
+    <mergeCell ref="AC67:AH67"/>
+    <mergeCell ref="AC68:AH68"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="H11:AH11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P65:AB65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P66:AB66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="P67:AB67"/>
+    <mergeCell ref="M67:O67"/>
     <mergeCell ref="H12:AH12"/>
     <mergeCell ref="H13:AH13"/>
     <mergeCell ref="H14:AH14"/>
@@ -10247,58 +10138,47 @@
     <mergeCell ref="AC62:AH62"/>
     <mergeCell ref="C22:AH49"/>
     <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P65:AB65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P66:AB66"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="P67:AB67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="H11:AH11"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H78:AH78"/>
-    <mergeCell ref="H79:AH79"/>
-    <mergeCell ref="C81:AH81"/>
-    <mergeCell ref="H82:AH82"/>
-    <mergeCell ref="H83:AH83"/>
-    <mergeCell ref="AC66:AH66"/>
-    <mergeCell ref="AC67:AH67"/>
-    <mergeCell ref="AC68:AH68"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D18"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AC63:AH63"/>
+    <mergeCell ref="AC64:AH64"/>
+    <mergeCell ref="AC65:AH65"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:AB61"/>
+    <mergeCell ref="P62:AB62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P63:AB63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="AC69:AH69"/>
+    <mergeCell ref="AC70:AH70"/>
+    <mergeCell ref="AC71:AH71"/>
+    <mergeCell ref="H75:AH75"/>
+    <mergeCell ref="H76:AH76"/>
+    <mergeCell ref="H77:AH77"/>
+    <mergeCell ref="P68:AB68"/>
+    <mergeCell ref="P69:AB69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="P70:AB70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="P71:AB71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <dataValidations count="2">
